--- a/examples/Abatement/Data/techdata_main_catalog_lowcost.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog_lowcost.xlsx
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
         <v>0.3</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>1.2</v>
